--- a/exports/Report_03-02-2023.xlsx
+++ b/exports/Report_03-02-2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t xml:space="preserve">Lịch Thi </t>
   </si>
@@ -343,7 +343,7 @@
     <t>06:00</t>
   </si>
   <si>
-    <t>02/02/2023</t>
+    <t>26/02/2023</t>
   </si>
   <si>
     <t>Nam</t>
@@ -355,6 +355,9 @@
     <t>2005</t>
   </si>
   <si>
+    <t>phanvinh637@gmail.com</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
@@ -365,6 +368,15 @@
   </si>
   <si>
     <t>14:30</t>
+  </si>
+  <si>
+    <t>Phan Thanh Vinh</t>
+  </si>
+  <si>
+    <t>07/02/2023</t>
+  </si>
+  <si>
+    <t>vinhphan812@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -838,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="M8" sqref="M8"/>
@@ -1025,7 +1037,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>28</v>
@@ -1076,14 +1088,14 @@
         <v>26</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -1098,7 +1110,7 @@
       </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" s="13" t="s">
         <v>33</v>
@@ -1127,14 +1139,14 @@
         <v>26</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -1149,10 +1161,112 @@
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
+        <v>1</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
